--- a/openpyxl/test.xlsx
+++ b/openpyxl/test.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -446,7 +446,7 @@
           <t>b</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
@@ -466,18 +466,88 @@
           <t>http://dy.163.com/v2/article/detail/FECD42PS053469JX.html</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -490,18 +560,88 @@
           <t>http://emcreative.eastmoney.com//Fortune/V/Share_ArticleDetail/20200605203712449232300</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -511,18 +651,88 @@
           <t>http://www.toutiao.com/i6837381215624888840/</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -532,18 +742,88 @@
           <t>http://bigdata-s3.wmcloud.com/newsmbl/vaI5WfrER6IhhfiqeYqi6Q</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +833,88 @@
           <t>http://www.yidianzixun.com/article/0PXvWfAd</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -574,18 +924,88 @@
           <t>http://www.sznews.com/eating/content/2020-06/05/content_23223474.htm</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -595,18 +1015,88 @@
           <t>http://view.inews.qq.com/a/20200605A0IYM200</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -616,18 +1106,88 @@
           <t>http://guba.eastmoney.com/news,gssz,936343935.html</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -637,18 +1197,88 @@
           <t>http://www.jt160.com/news/830629.html</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +1288,88 @@
           <t>http://www.wangjiaozixun.com/html/zx20/2020/0605/1343230.html</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -679,18 +1379,88 @@
           <t>http://post.mp.qq.com/kan/article/3622930394-1110576216.html?sig=9462303ced2970498199703f290c07c5&amp;article_id=1110576216&amp;time=1591370228&amp;rowkey=4165eda61c892414</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,18 +1470,88 @@
           <t>http://www.csis.cn/ch/reader/view_news.aspx?id=20200605111000001</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,18 +1561,88 @@
           <t>http://zhuanlan.zhihu.com/p/145989129</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,18 +1652,88 @@
           <t>http://guba.eastmoney.com/news,gssz,936299369.html</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +1743,88 @@
           <t>http://www.chinastock.com.cn/yhwz_about.do?methodCall=getDetailInfo&amp;docId=7276821</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,18 +1834,88 @@
           <t>http://tznew.58.com/view/c/sharingDetailNew?infoid=116771969</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -805,18 +1925,88 @@
           <t>http://www.goufang.com/fangchan/renqiu_39577.html</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +2016,88 @@
           <t>http://m.news.leju.com/news-6674470799719841341.html#ln=m_cj_tjlistnews</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -847,18 +2107,88 @@
           <t>http://ishare.ifeng.com/c/s/7x35zCfSlpg</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +2198,88 @@
           <t>http://baijiahao.baidu.com/s?id=1668617771020202211</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -889,18 +2289,88 @@
           <t>http://www.toutiao.com/i6834658542243283463/</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
+      <c r="S22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="U22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -910,18 +2380,88 @@
           <t>http://mp.weixin.qq.com/s?__biz=MzU4MDIyNzYwMg==&amp;mid=2247489487&amp;idx=2&amp;sn=05601d96a0f7448a3cadb8e3f184933f&amp;scene=0</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -931,18 +2471,88 @@
           <t>http://bbs1.people.com.cn/post/129/1/2/175993737.html</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,18 +2562,88 @@
           <t>http://hnrb.hinews.cn/h5/html5/2020-06/06/content_5721_603831.htm</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +2653,88 @@
           <t>http://dy.163.com/v2/article/detail/FEE7LR360514TTKD.html</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
+      <c r="S26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -994,18 +2744,88 @@
           <t>http://bbs1.people.com.cn/post/1/1/1/175993737.html</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1015,18 +2835,88 @@
           <t>http://hnrb.hinews.cn/html/2020-06/06/content_3_8.htm</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1036,18 +2926,88 @@
           <t>http://hi.people.com.cn/n2/2020/0606/c231190-34068384.html</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1057,18 +3017,88 @@
           <t>http://dy.163.com/v2/article/detail/FEDVNSL9053469JX.html</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +3108,88 @@
           <t>http://dy.163.com/v2/article/detail/FEE7LSMI053469JX.html</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1099,18 +3199,88 @@
           <t>http://www.ningyuannews.com.cn/system/2020-06/06/content_16540.html</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,18 +3290,88 @@
           <t>http://guba.eastmoney.com/news,gssz,936442923.html</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1141,18 +3381,88 @@
           <t>http://www.jt160.com/news/831272.html</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,18 +3472,88 @@
           <t>http://3g.cnfol.com/sc_stock/ggzixun/20200606/28195552.shtml</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +3563,88 @@
           <t>http://guba.eastmoney.com/news,000048,936442923.html</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,18 +3654,88 @@
           <t>http://emcreative.eastmoney.com//Fortune/V/Share_ArticleDetail/20200606193738985318650</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1225,18 +3745,88 @@
           <t>http://ngdsb.hinews.cn/html/2020-06/06/content_4_2.htm</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,18 +3836,88 @@
           <t>http://guba.eastmoney.com/news,000048,936434602.html</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,18 +3927,88 @@
           <t>http://hi.people.com.cn/GB/n2/2020/0606/c231190-34068384.html</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +4018,88 @@
           <t>http://hi.people.com.cn/BIG5/n2/2020/0606/c231190-34068384.html</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="S41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1309,18 +4109,88 @@
           <t>http://dy.163.com/v2/article/detail/FEFAMP30053469RJ.html</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,18 +4200,88 @@
           <t>http://iitb.hainan.gov.cn/hisme/xxzx/hnyw/202006/t20200608_3280757.html</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1351,18 +4291,88 @@
           <t>http://gp.sanhuba.com/cjyw/hgjj/20200606/86512.html</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,18 +4382,88 @@
           <t>http://3g.k.sohu.com/t/n456388503</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +4473,88 @@
           <t>http://3g.k.sohu.com/t/n456392920</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
         <v>1</v>
       </c>
     </row>
